--- a/data/trans_dic/P25A$molestias-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25A$molestias-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,57; 23,12</t>
+          <t>14,33; 23,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,71; 15,6</t>
+          <t>8,67; 15,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,5; 24,61</t>
+          <t>14,29; 24,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,68; 22,85</t>
+          <t>4,03; 22,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,79</t>
+          <t>0,0; 9,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,31; 35,77</t>
+          <t>9,92; 38,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,13; 21,73</t>
+          <t>13,83; 21,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,91; 13,82</t>
+          <t>7,86; 13,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,58; 24,98</t>
+          <t>15,08; 24,86</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,17; 26,45</t>
+          <t>15,84; 26,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,22; 13,94</t>
+          <t>7,49; 14,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,61; 20,77</t>
+          <t>11,78; 20,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,52; 21,77</t>
+          <t>10,02; 20,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,02; 13,41</t>
+          <t>5,22; 13,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,16; 18,89</t>
+          <t>9,26; 19,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,07; 23,24</t>
+          <t>14,97; 23,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,03; 12,31</t>
+          <t>7,04; 12,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,89; 18,32</t>
+          <t>11,33; 18,25</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,93; 23,27</t>
+          <t>7,31; 23,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 13,4</t>
+          <t>2,86; 12,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,18; 17,12</t>
+          <t>3,56; 17,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,35; 27,73</t>
+          <t>7,93; 27,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,02; 25,81</t>
+          <t>8,57; 26,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,29; 18,73</t>
+          <t>5,24; 17,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,58; 21,45</t>
+          <t>8,61; 21,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,57; 15,61</t>
+          <t>6,38; 15,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,48; 14,8</t>
+          <t>5,37; 14,5</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,9; 22,28</t>
+          <t>15,74; 21,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,59; 12,92</t>
+          <t>8,52; 13,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,05; 19,0</t>
+          <t>12,68; 18,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,68; 19,34</t>
+          <t>10,4; 19,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,96; 12,64</t>
+          <t>6,35; 12,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,53; 17,82</t>
+          <t>10,04; 17,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,24; 20,33</t>
+          <t>15,25; 20,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,31; 11,98</t>
+          <t>8,33; 11,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,63; 17,37</t>
+          <t>12,63; 17,4</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, las molestias por causa del tabaco</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>56402</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>44180</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>40491</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5822</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8250</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>62224</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>46172</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>48742</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>43419; 69929</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>32255; 58466</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>29979; 51643</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1941; 11017</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6787</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3733; 14368</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>48573; 76553</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>34659; 61718</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>37324; 61522</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>49748</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>35919</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>47229</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>22434</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>20145</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>27407</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>72182</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>56064</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>74637</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>37562; 63942</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>26063; 49604</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>35594; 60748</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>15145; 31693</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>12530; 31489</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>18617; 39369</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>58112; 89406</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>41383; 72309</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>56984; 91840</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11650</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6176</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7330</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>8143</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11982</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10075</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>19793</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>18159</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>17405</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6168; 19538</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2751; 12166</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3190; 15658</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4071; 14228</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6633; 20375</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4984; 16716</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>11692; 29361</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11081; 27728</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9911; 26777</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>117800</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>86275</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>95051</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>36399</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>34120</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>45732</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>154199</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>120395</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>140783</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>98278; 136992</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>69519; 107720</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>76294; 112714</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>26066; 48311</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>24537; 49587</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>33513; 59302</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>133501; 178395</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>100155; 143504</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>118159; 162689</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>